--- a/台北.xlsx
+++ b/台北.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816EB36E-D90B-43D7-AF09-EB74BE5513A3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE402314-169F-409D-B599-622C3E5D91A6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="55">
   <si>
     <t>//ψ = fi</t>
   </si>
@@ -237,19 +237,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>加總</t>
-  </si>
-  <si>
-    <t>平均值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>計算加總</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>計數</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>一年的最佳傾斜角</t>
   </si>
 </sst>
 </file>
@@ -1120,7 +1108,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'R = 0 ,變B一年總照射量'!$A$5</c:f>
+              <c:f>'R = 0 ,變B一年總照射量'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1141,91 +1129,91 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'R = 0 ,變B一年總照射量'!$B$4:$L$4</c:f>
+              <c:f>'R = 0 ,變B一年總照射量'!$B$1:$L$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>18</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>26</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>27</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>28</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'R = 0 ,變B一年總照射量'!$B$5:$L$5</c:f>
+              <c:f>'R = 0 ,變B一年總照射量'!$B$2:$L$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>17.9284</c:v>
+                  <c:v>16.795000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.940100000000001</c:v>
+                  <c:v>17.6387</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>17.946400000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.947199999999999</c:v>
+                  <c:v>17.7088</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.942499999999999</c:v>
+                  <c:v>16.933199999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.932400000000001</c:v>
+                  <c:v>16.350300000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.916799999999999</c:v>
+                  <c:v>15.643000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.895700000000001</c:v>
+                  <c:v>13.8775</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.869199999999999</c:v>
+                  <c:v>11.6904</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.837199999999999</c:v>
+                  <c:v>9.1480700000000006</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17.799800000000001</c:v>
+                  <c:v>6.3277799999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-66EF-4014-AF21-90FD5F8C6D85}"/>
+              <c16:uniqueId val="{00000000-7B5C-41F2-A28E-D4B74D054C8B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1239,11 +1227,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="544670880"/>
-        <c:axId val="554154144"/>
+        <c:axId val="1780502352"/>
+        <c:axId val="1867326528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="544670880"/>
+        <c:axId val="1780502352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1286,7 +1274,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="554154144"/>
+        <c:crossAx val="1867326528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1294,7 +1282,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="554154144"/>
+        <c:axId val="1867326528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1345,7 +1333,518 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="544670880"/>
+        <c:crossAx val="1780502352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'B = 0,變R一年總照射量'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>一年的最佳傾斜角</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'B = 0,變R一年總照射量'!$B$1:$AP$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'B = 0,變R一年總照射量'!$B$2:$AP$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>17.947199999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.9468</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.945799999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.944099999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.941700000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.938600000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.934799999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.930299999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.9251</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.9193</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17.912700000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.9055</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.897600000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17.889099999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.879799999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17.869900000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.859300000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17.848099999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17.836200000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17.823599999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17.810400000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>17.796600000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>17.7821</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>17.7669</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>17.751100000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>17.7347</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>17.717700000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>17.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>17.681699999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>17.6629</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>17.6434</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>17.6233</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>17.602599999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>17.581299999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>17.5595</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>17.537099999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>17.514099999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>17.490600000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>17.4665</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>17.441800000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>17.416599999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-066A-4839-BDB2-FF7B23429974}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1871054032"/>
+        <c:axId val="1780184704"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1871054032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1780184704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1780184704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1871054032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6537,7 +7036,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'[1]123'!$A$2</c:f>
+              <c:f>'R = 0 ,變B一年總照射量'!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6558,91 +7057,91 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'[1]123'!$B$1:$L$1</c:f>
+              <c:f>'R = 0 ,變B一年總照射量'!$B$4:$L$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>60</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>70</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>80</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>90</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'[1]123'!$B$2:$L$2</c:f>
+              <c:f>'R = 0 ,變B一年總照射量'!$B$5:$L$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>16.795000000000002</c:v>
+                  <c:v>17.9284</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.6387</c:v>
+                  <c:v>17.940100000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>17.946400000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.7088</c:v>
+                  <c:v>17.947199999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.933199999999999</c:v>
+                  <c:v>17.942499999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.350300000000001</c:v>
+                  <c:v>17.932400000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.643000000000001</c:v>
+                  <c:v>17.916799999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.8775</c:v>
+                  <c:v>17.895700000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.6904</c:v>
+                  <c:v>17.869199999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.1480700000000006</c:v>
+                  <c:v>17.837199999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.3277799999999997</c:v>
+                  <c:v>17.799800000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A6D2-48FF-9EDE-4074B100F88F}"/>
+              <c16:uniqueId val="{00000000-66EF-4014-AF21-90FD5F8C6D85}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6656,11 +7155,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1104061328"/>
-        <c:axId val="1146691664"/>
+        <c:axId val="544670880"/>
+        <c:axId val="554154144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1104061328"/>
+        <c:axId val="544670880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6703,7 +7202,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1146691664"/>
+        <c:crossAx val="554154144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6711,7 +7210,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1146691664"/>
+        <c:axId val="554154144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6762,7 +7261,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1104061328"/>
+        <c:crossAx val="544670880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6852,6 +7351,46 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8230,6 +8769,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -12652,44 +13707,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="圖表 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E54D307-49EB-4ABB-A368-0ACCFD36A5F0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>452437</xdr:colOff>
       <xdr:row>10</xdr:row>
@@ -12718,7 +13735,84 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44D0EF03-3F9E-4636-8D5A-4C733CF04679}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F4198FE-F523-4316-9818-7CAC633984E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -12735,77 +13829,42 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="1">
-          <cell r="B1">
-            <v>0</v>
-          </cell>
-          <cell r="C1">
-            <v>10</v>
-          </cell>
-          <cell r="D1">
-            <v>20</v>
-          </cell>
-          <cell r="E1">
-            <v>30</v>
-          </cell>
-          <cell r="F1">
-            <v>40</v>
-          </cell>
-          <cell r="G1">
-            <v>45</v>
-          </cell>
-          <cell r="H1">
-            <v>50</v>
-          </cell>
-          <cell r="I1">
-            <v>60</v>
-          </cell>
-          <cell r="J1">
-            <v>70</v>
-          </cell>
-          <cell r="K1">
-            <v>80</v>
-          </cell>
-          <cell r="L1">
-            <v>90</v>
-          </cell>
-        </row>
         <row r="2">
           <cell r="A2" t="str">
-            <v>一年</v>
-          </cell>
-          <cell r="B2">
-            <v>16.795000000000002</v>
+            <v>一年的最佳傾斜角</v>
           </cell>
           <cell r="C2">
-            <v>17.6387</v>
+            <v>17.9468</v>
           </cell>
           <cell r="D2">
-            <v>17.946400000000001</v>
+            <v>17.945799999999998</v>
           </cell>
           <cell r="E2">
-            <v>17.7088</v>
+            <v>17.944099999999999</v>
           </cell>
           <cell r="F2">
-            <v>16.933199999999999</v>
+            <v>17.941700000000001</v>
           </cell>
           <cell r="G2">
-            <v>16.350300000000001</v>
+            <v>17.938600000000001</v>
           </cell>
           <cell r="H2">
-            <v>15.643000000000001</v>
+            <v>17.934799999999999</v>
           </cell>
           <cell r="I2">
-            <v>13.8775</v>
+            <v>17.930299999999999</v>
           </cell>
           <cell r="J2">
-            <v>11.6904</v>
+            <v>17.9251</v>
           </cell>
           <cell r="K2">
-            <v>9.1480700000000006</v>
+            <v>17.9193</v>
           </cell>
           <cell r="L2">
-            <v>6.3277799999999997</v>
+            <v>17.912700000000001</v>
+          </cell>
+          <cell r="M2">
+            <v>17.9055</v>
           </cell>
         </row>
       </sheetData>
@@ -14518,7 +15577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63E6B701-432D-43B5-9DCB-49F4E0DE63D7}">
   <dimension ref="A1:BG93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z23" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="Z23" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AK7" sqref="AK7"/>
     </sheetView>
   </sheetViews>
@@ -21240,7 +22299,7 @@
         <v>6.8990182133947184E-2</v>
       </c>
       <c r="AA6">
-        <f t="shared" ref="AA3:AA45" si="17" xml:space="preserve"> X6 + Y6 + Z6</f>
+        <f t="shared" ref="AA6:AA42" si="17" xml:space="preserve"> X6 + Y6 + Z6</f>
         <v>0.99976884925535137</v>
       </c>
       <c r="AF6">
@@ -28062,7 +29121,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+      <selection activeCell="V24" sqref="V24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -28225,15 +29284,270 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B2BF8E-4E30-4F32-9242-DD9AA2475459}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AP2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <v>17</v>
+      </c>
+      <c r="T1">
+        <v>18</v>
+      </c>
+      <c r="U1">
+        <v>19</v>
+      </c>
+      <c r="V1">
+        <v>20</v>
+      </c>
+      <c r="W1">
+        <v>21</v>
+      </c>
+      <c r="X1">
+        <v>22</v>
+      </c>
+      <c r="Y1">
+        <v>23</v>
+      </c>
+      <c r="Z1">
+        <v>24</v>
+      </c>
+      <c r="AA1">
+        <v>25</v>
+      </c>
+      <c r="AB1">
+        <v>26</v>
+      </c>
+      <c r="AC1">
+        <v>27</v>
+      </c>
+      <c r="AD1">
+        <v>28</v>
+      </c>
+      <c r="AE1">
+        <v>29</v>
+      </c>
+      <c r="AF1">
+        <v>30</v>
+      </c>
+      <c r="AG1">
+        <v>31</v>
+      </c>
+      <c r="AH1">
+        <v>32</v>
+      </c>
+      <c r="AI1">
+        <v>33</v>
+      </c>
+      <c r="AJ1">
+        <v>34</v>
+      </c>
+      <c r="AK1">
+        <v>35</v>
+      </c>
+      <c r="AL1">
+        <v>36</v>
+      </c>
+      <c r="AM1">
+        <v>37</v>
+      </c>
+      <c r="AN1">
+        <v>38</v>
+      </c>
+      <c r="AO1">
+        <v>39</v>
+      </c>
+      <c r="AP1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2">
+        <v>17.947199999999999</v>
+      </c>
+      <c r="C2">
+        <v>17.9468</v>
+      </c>
+      <c r="D2">
+        <v>17.945799999999998</v>
+      </c>
+      <c r="E2">
+        <v>17.944099999999999</v>
+      </c>
+      <c r="F2">
+        <v>17.941700000000001</v>
+      </c>
+      <c r="G2">
+        <v>17.938600000000001</v>
+      </c>
+      <c r="H2">
+        <v>17.934799999999999</v>
+      </c>
+      <c r="I2">
+        <v>17.930299999999999</v>
+      </c>
+      <c r="J2">
+        <v>17.9251</v>
+      </c>
+      <c r="K2">
+        <v>17.9193</v>
+      </c>
+      <c r="L2">
+        <v>17.912700000000001</v>
+      </c>
+      <c r="M2">
+        <v>17.9055</v>
+      </c>
+      <c r="N2">
+        <v>17.897600000000001</v>
+      </c>
+      <c r="O2">
+        <v>17.889099999999999</v>
+      </c>
+      <c r="P2">
+        <v>17.879799999999999</v>
+      </c>
+      <c r="Q2">
+        <v>17.869900000000001</v>
+      </c>
+      <c r="R2">
+        <v>17.859300000000001</v>
+      </c>
+      <c r="S2">
+        <v>17.848099999999999</v>
+      </c>
+      <c r="T2">
+        <v>17.836200000000002</v>
+      </c>
+      <c r="U2">
+        <v>17.823599999999999</v>
+      </c>
+      <c r="V2">
+        <v>17.810400000000001</v>
+      </c>
+      <c r="W2">
+        <v>17.796600000000002</v>
+      </c>
+      <c r="X2">
+        <v>17.7821</v>
+      </c>
+      <c r="Y2">
+        <v>17.7669</v>
+      </c>
+      <c r="Z2">
+        <v>17.751100000000001</v>
+      </c>
+      <c r="AA2">
+        <v>17.7347</v>
+      </c>
+      <c r="AB2">
+        <v>17.717700000000001</v>
+      </c>
+      <c r="AC2">
+        <v>17.7</v>
+      </c>
+      <c r="AD2">
+        <v>17.681699999999999</v>
+      </c>
+      <c r="AE2">
+        <v>17.6629</v>
+      </c>
+      <c r="AF2">
+        <v>17.6434</v>
+      </c>
+      <c r="AG2">
+        <v>17.6233</v>
+      </c>
+      <c r="AH2">
+        <v>17.602599999999999</v>
+      </c>
+      <c r="AI2">
+        <v>17.581299999999999</v>
+      </c>
+      <c r="AJ2">
+        <v>17.5595</v>
+      </c>
+      <c r="AK2">
+        <v>17.537099999999999</v>
+      </c>
+      <c r="AL2">
+        <v>17.514099999999999</v>
+      </c>
+      <c r="AM2">
+        <v>17.490600000000001</v>
+      </c>
+      <c r="AN2">
+        <v>17.4665</v>
+      </c>
+      <c r="AO2">
+        <v>17.441800000000001</v>
+      </c>
+      <c r="AP2">
+        <v>17.416599999999999</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>